--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H2">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I2">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J2">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N2">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O2">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P2">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q2">
-        <v>1.861472834017711</v>
+        <v>2.005089730702778</v>
       </c>
       <c r="R2">
-        <v>1.861472834017711</v>
+        <v>18.045807576325</v>
       </c>
       <c r="S2">
-        <v>0.02351331469679605</v>
+        <v>0.02278036382256654</v>
       </c>
       <c r="T2">
-        <v>0.02351331469679605</v>
+        <v>0.02845877131986692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H3">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I3">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J3">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N3">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O3">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P3">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q3">
-        <v>3.369574033915138</v>
+        <v>4.340913309523334</v>
       </c>
       <c r="R3">
-        <v>3.369574033915138</v>
+        <v>39.06821978571</v>
       </c>
       <c r="S3">
-        <v>0.04256299270432724</v>
+        <v>0.04931828386478402</v>
       </c>
       <c r="T3">
-        <v>0.04256299270432724</v>
+        <v>0.0616117360252959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H4">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I4">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J4">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N4">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O4">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P4">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q4">
-        <v>1.830690298545685</v>
+        <v>2.140838926548334</v>
       </c>
       <c r="R4">
-        <v>1.830690298545685</v>
+        <v>19.267550338935</v>
       </c>
       <c r="S4">
-        <v>0.02312448310576132</v>
+        <v>0.02432264695465296</v>
       </c>
       <c r="T4">
-        <v>0.02312448310576132</v>
+        <v>0.03038549572639531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H5">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I5">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J5">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N5">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O5">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P5">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q5">
-        <v>1.930207191564413</v>
+        <v>2.017559212437222</v>
       </c>
       <c r="R5">
-        <v>1.930207191564413</v>
+        <v>18.158032911935</v>
       </c>
       <c r="S5">
-        <v>0.02438153718704289</v>
+        <v>0.02292203295898465</v>
       </c>
       <c r="T5">
-        <v>0.02438153718704289</v>
+        <v>0.02863575398738745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H6">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I6">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J6">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24963765645086</v>
+        <v>1.2534995</v>
       </c>
       <c r="N6">
-        <v>1.24963765645086</v>
+        <v>2.506999</v>
       </c>
       <c r="O6">
-        <v>0.2032523568052459</v>
+        <v>0.185798138949642</v>
       </c>
       <c r="P6">
-        <v>0.2032523568052459</v>
+        <v>0.1320432208656814</v>
       </c>
       <c r="Q6">
-        <v>2.29386795008959</v>
+        <v>2.397069183015834</v>
       </c>
       <c r="R6">
-        <v>2.29386795008959</v>
+        <v>14.382415098095</v>
       </c>
       <c r="S6">
-        <v>0.02897514161780016</v>
+        <v>0.02723374782724749</v>
       </c>
       <c r="T6">
-        <v>0.02897514161780016</v>
+        <v>0.0226814932262201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H7">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J7">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N7">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O7">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P7">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q7">
-        <v>4.761865344888167</v>
+        <v>4.953319807471112</v>
       </c>
       <c r="R7">
-        <v>4.761865344888167</v>
+        <v>44.57987826724001</v>
       </c>
       <c r="S7">
-        <v>0.06014981059726677</v>
+        <v>0.0562759988323154</v>
       </c>
       <c r="T7">
-        <v>0.06014981059726677</v>
+        <v>0.0703037841730802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H8">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J8">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N8">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O8">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P8">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q8">
-        <v>8.619764697024236</v>
+        <v>10.72367562874133</v>
       </c>
       <c r="R8">
-        <v>8.619764697024236</v>
+        <v>96.513080658672</v>
       </c>
       <c r="S8">
-        <v>0.1088811161944335</v>
+        <v>0.1218345636094275</v>
       </c>
       <c r="T8">
-        <v>0.1088811161944335</v>
+        <v>0.1522039775844914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H9">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J9">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N9">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O9">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P9">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q9">
-        <v>4.683120016880528</v>
+        <v>5.288670974221334</v>
       </c>
       <c r="R9">
-        <v>4.683120016880528</v>
+        <v>47.598038767992</v>
       </c>
       <c r="S9">
-        <v>0.05915513388509058</v>
+        <v>0.06008601365106103</v>
       </c>
       <c r="T9">
-        <v>0.05915513388509058</v>
+        <v>0.07506351238885939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H10">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J10">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N10">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O10">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P10">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q10">
-        <v>4.937695875005737</v>
+        <v>4.984124080176889</v>
       </c>
       <c r="R10">
-        <v>4.937695875005737</v>
+        <v>44.857116721592</v>
       </c>
       <c r="S10">
-        <v>0.0623708253294751</v>
+        <v>0.05662597446122714</v>
       </c>
       <c r="T10">
-        <v>0.0623708253294751</v>
+        <v>0.0707409974005906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H11">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J11">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24963765645086</v>
+        <v>1.2534995</v>
       </c>
       <c r="N11">
-        <v>1.24963765645086</v>
+        <v>2.506999</v>
       </c>
       <c r="O11">
-        <v>0.2032523568052459</v>
+        <v>0.185798138949642</v>
       </c>
       <c r="P11">
-        <v>0.2032523568052459</v>
+        <v>0.1320432208656814</v>
       </c>
       <c r="Q11">
-        <v>5.867982652051611</v>
+        <v>5.921655316617334</v>
       </c>
       <c r="R11">
-        <v>5.867982652051611</v>
+        <v>35.529931899704</v>
       </c>
       <c r="S11">
-        <v>0.07412180302155118</v>
+        <v>0.067277519045044</v>
       </c>
       <c r="T11">
-        <v>0.07412180302155118</v>
+        <v>0.05603175156708822</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H12">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I12">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J12">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N12">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O12">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P12">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q12">
-        <v>0.2915842505883935</v>
+        <v>0.3562139163094445</v>
       </c>
       <c r="R12">
-        <v>0.2915842505883935</v>
+        <v>3.205925246785001</v>
       </c>
       <c r="S12">
-        <v>0.003683165351339801</v>
+        <v>0.004047042128805998</v>
       </c>
       <c r="T12">
-        <v>0.003683165351339801</v>
+        <v>0.005055838763710371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H13">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I13">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J13">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N13">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O13">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P13">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q13">
-        <v>0.5278157712141545</v>
+        <v>0.7711843049553334</v>
       </c>
       <c r="R13">
-        <v>0.5278157712141545</v>
+        <v>6.940658744598001</v>
       </c>
       <c r="S13">
-        <v>0.006667139108178056</v>
+        <v>0.008761632345988883</v>
       </c>
       <c r="T13">
-        <v>0.006667139108178056</v>
+        <v>0.01094562375146273</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H14">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I14">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J14">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N14">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O14">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P14">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q14">
-        <v>0.2867624222099215</v>
+        <v>0.3803304194003334</v>
       </c>
       <c r="R14">
-        <v>0.2867624222099215</v>
+        <v>3.422973774603001</v>
       </c>
       <c r="S14">
-        <v>0.003622258113799166</v>
+        <v>0.004321036208036528</v>
       </c>
       <c r="T14">
-        <v>0.003622258113799166</v>
+        <v>0.005398130700070703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H15">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I15">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J15">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N15">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O15">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P15">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q15">
-        <v>0.3023509165147892</v>
+        <v>0.3584291802225556</v>
       </c>
       <c r="R15">
-        <v>0.3023509165147892</v>
+        <v>3.225862622003</v>
       </c>
       <c r="S15">
-        <v>0.003819165189498172</v>
+        <v>0.004072210338054162</v>
       </c>
       <c r="T15">
-        <v>0.003819165189498172</v>
+        <v>0.0050872805930465</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H16">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I16">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J16">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.24963765645086</v>
+        <v>1.2534995</v>
       </c>
       <c r="N16">
-        <v>1.24963765645086</v>
+        <v>2.506999</v>
       </c>
       <c r="O16">
-        <v>0.2032523568052459</v>
+        <v>0.185798138949642</v>
       </c>
       <c r="P16">
-        <v>0.2032523568052459</v>
+        <v>0.1320432208656814</v>
       </c>
       <c r="Q16">
-        <v>0.3593153523127073</v>
+        <v>0.4258509673018335</v>
       </c>
       <c r="R16">
-        <v>0.3593153523127073</v>
+        <v>2.555105803811001</v>
       </c>
       <c r="S16">
-        <v>0.004538715150671088</v>
+        <v>0.004838207398293076</v>
       </c>
       <c r="T16">
-        <v>0.004538715150671088</v>
+        <v>0.004029477287795082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H17">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I17">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J17">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N17">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O17">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P17">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q17">
-        <v>0.3213271095830661</v>
+        <v>0.3451925555638889</v>
       </c>
       <c r="R17">
-        <v>0.3213271095830661</v>
+        <v>3.106733000075</v>
       </c>
       <c r="S17">
-        <v>0.004058864201596303</v>
+        <v>0.003921825484503745</v>
       </c>
       <c r="T17">
-        <v>0.004058864201596303</v>
+        <v>0.00489940966216508</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H18">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I18">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J18">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N18">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O18">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P18">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q18">
-        <v>0.5816552705242445</v>
+        <v>0.7473236413566667</v>
       </c>
       <c r="R18">
-        <v>0.5816552705242445</v>
+        <v>6.725912772209999</v>
       </c>
       <c r="S18">
-        <v>0.007347216231658674</v>
+        <v>0.008490544928053236</v>
       </c>
       <c r="T18">
-        <v>0.007347216231658674</v>
+        <v>0.01060696301299457</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H19">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I19">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J19">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N19">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O19">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P19">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q19">
-        <v>0.3160134337839325</v>
+        <v>0.3685628871316667</v>
       </c>
       <c r="R19">
-        <v>0.3160134337839325</v>
+        <v>3.317065984185</v>
       </c>
       <c r="S19">
-        <v>0.003991744161497674</v>
+        <v>0.004187342108331542</v>
       </c>
       <c r="T19">
-        <v>0.003991744161497674</v>
+        <v>0.005231110987832805</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H20">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I20">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J20">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N20">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O20">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P20">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q20">
-        <v>0.3331920221597707</v>
+        <v>0.3473392785761111</v>
       </c>
       <c r="R20">
-        <v>0.3331920221597707</v>
+        <v>3.126053507185</v>
       </c>
       <c r="S20">
-        <v>0.004208736613467006</v>
+        <v>0.003946214982138625</v>
       </c>
       <c r="T20">
-        <v>0.004208736613467006</v>
+        <v>0.004929878672282904</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H21">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I21">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J21">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.24963765645086</v>
+        <v>1.2534995</v>
       </c>
       <c r="N21">
-        <v>1.24963765645086</v>
+        <v>2.506999</v>
       </c>
       <c r="O21">
-        <v>0.2032523568052459</v>
+        <v>0.185798138949642</v>
       </c>
       <c r="P21">
-        <v>0.2032523568052459</v>
+        <v>0.1320432208656814</v>
       </c>
       <c r="Q21">
-        <v>0.3959670776267196</v>
+        <v>0.4126750162241667</v>
       </c>
       <c r="R21">
-        <v>0.3959670776267196</v>
+        <v>2.476050097345</v>
       </c>
       <c r="S21">
-        <v>0.005001683793425236</v>
+        <v>0.004688511873618286</v>
       </c>
       <c r="T21">
-        <v>0.005001683793425236</v>
+        <v>0.003904804104711934</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H22">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I22">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J22">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N22">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O22">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P22">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q22">
-        <v>5.821451632281592</v>
+        <v>6.0196064019825</v>
       </c>
       <c r="R22">
-        <v>5.821451632281592</v>
+        <v>36.117638411895</v>
       </c>
       <c r="S22">
-        <v>0.07353404343085447</v>
+        <v>0.06839036767583904</v>
       </c>
       <c r="T22">
-        <v>0.07353404343085447</v>
+        <v>0.05695858208785599</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H23">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I23">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J23">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N23">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O23">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P23">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q23">
-        <v>10.53779131307071</v>
+        <v>13.032129758751</v>
       </c>
       <c r="R23">
-        <v>10.53779131307071</v>
+        <v>78.192778552506</v>
       </c>
       <c r="S23">
-        <v>0.1331087936527135</v>
+        <v>0.14806153198101</v>
       </c>
       <c r="T23">
-        <v>0.1331087936527135</v>
+        <v>0.1233123202870777</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H24">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I24">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J24">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N24">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O24">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P24">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q24">
-        <v>5.725184290586027</v>
+        <v>6.427147628623501</v>
       </c>
       <c r="R24">
-        <v>5.725184290586027</v>
+        <v>38.562885771741</v>
       </c>
       <c r="S24">
-        <v>0.07231803626763079</v>
+        <v>0.0730205531849549</v>
       </c>
       <c r="T24">
-        <v>0.07231803626763079</v>
+        <v>0.06081480936613317</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H25">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I25">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J25">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N25">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O25">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P25">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q25">
-        <v>6.03640708616831</v>
+        <v>6.057041819923501</v>
       </c>
       <c r="R25">
-        <v>6.03640708616831</v>
+        <v>36.342250919541</v>
       </c>
       <c r="S25">
-        <v>0.076249267172327</v>
+        <v>0.06881568152962199</v>
       </c>
       <c r="T25">
-        <v>0.076249267172327</v>
+        <v>0.05731280264371881</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H26">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I26">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J26">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.24963765645086</v>
+        <v>1.2534995</v>
       </c>
       <c r="N26">
-        <v>1.24963765645086</v>
+        <v>2.506999</v>
       </c>
       <c r="O26">
-        <v>0.2032523568052459</v>
+        <v>0.185798138949642</v>
       </c>
       <c r="P26">
-        <v>0.2032523568052459</v>
+        <v>0.1320432208656814</v>
       </c>
       <c r="Q26">
-        <v>7.173696590277727</v>
+        <v>7.196392649729251</v>
       </c>
       <c r="R26">
-        <v>7.173696590277727</v>
+        <v>28.785570598917</v>
       </c>
       <c r="S26">
-        <v>0.09061501322179817</v>
+        <v>0.08176015280543915</v>
       </c>
       <c r="T26">
-        <v>0.09061501322179817</v>
+        <v>0.04539569467986606</v>
       </c>
     </row>
   </sheetData>
